--- a/FastTest PlugIn - Formula_Examples - GENERAL DATA.xlsx
+++ b/FastTest PlugIn - Formula_Examples - GENERAL DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHGM\0. APLICACIONES\FastTest PlugIn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHGM\0. APLICACIONES\FastTest PlugIn\0.EJEMPLOS_EXAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,8 +192,8 @@
     <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
     <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
     <definedName name="IDIOMA">[1]INICIO!$A$37</definedName>
-    <definedName name="P_max_CL">'[1]DATOS GENERALES'!$N$45</definedName>
-    <definedName name="P_min_CL">'[1]DATOS GENERALES'!$M$45</definedName>
+    <definedName name="P_max_CL">#REF!</definedName>
+    <definedName name="P_min_CL">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="203">
   <si>
     <t>DATO_01</t>
   </si>
@@ -573,9 +573,6 @@
     <t>VARIABLES</t>
   </si>
   <si>
-    <t>V5.0</t>
-  </si>
-  <si>
     <t>DATOS GENERALES</t>
   </si>
   <si>
@@ -669,42 +666,6 @@
     <t>Categ_20</t>
   </si>
   <si>
-    <t>SubCat_22</t>
-  </si>
-  <si>
-    <t>SubCat_21</t>
-  </si>
-  <si>
-    <t>SubCat_23</t>
-  </si>
-  <si>
-    <t>SubCat_24</t>
-  </si>
-  <si>
-    <t>SubCat_25</t>
-  </si>
-  <si>
-    <t>SubCat_26</t>
-  </si>
-  <si>
-    <t>SubCat_27</t>
-  </si>
-  <si>
-    <t>SubCat_28</t>
-  </si>
-  <si>
-    <t>SubCat_29</t>
-  </si>
-  <si>
-    <t>SubCat_30</t>
-  </si>
-  <si>
-    <t>SubCat_31</t>
-  </si>
-  <si>
-    <t>SubCat_32</t>
-  </si>
-  <si>
     <t>Mensaje Marcar Texto</t>
   </si>
   <si>
@@ -799,9 +760,6 @@
   </si>
   <si>
     <t>08_CL</t>
-  </si>
-  <si>
-    <t>Tomo tota de tu respuesta</t>
   </si>
   <si>
     <t>Muy bien, sigue así.</t>
@@ -815,6 +773,48 @@
   <si>
     <t xml:space="preserve">Haga clic en las etiquetas de texto para alternar: normal/rojo ondulado. &lt;br&gt;
 Haga clic en los botones para seleccionar la respuesta. </t>
+  </si>
+  <si>
+    <t>Tomo nota de tu respuesta</t>
+  </si>
+  <si>
+    <t>V6.0</t>
+  </si>
+  <si>
+    <t>SubCat_01</t>
+  </si>
+  <si>
+    <t>SubCat_02</t>
+  </si>
+  <si>
+    <t>SubCat_03</t>
+  </si>
+  <si>
+    <t>SubCat_04</t>
+  </si>
+  <si>
+    <t>SubCat_05</t>
+  </si>
+  <si>
+    <t>SubCat_06</t>
+  </si>
+  <si>
+    <t>SubCat_07</t>
+  </si>
+  <si>
+    <t>SubCat_08</t>
+  </si>
+  <si>
+    <t>SubCat_09</t>
+  </si>
+  <si>
+    <t>SubCat_10</t>
+  </si>
+  <si>
+    <t>SubCat_11</t>
+  </si>
+  <si>
+    <t>SubCat_12</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1140,7 @@
     <sheetNames>
       <sheetName val="DICCIONARIO"/>
       <sheetName val="INICIO"/>
-      <sheetName val="DATOS GENERALES"/>
+      <sheetName val="GENERAL"/>
       <sheetName val="Formulario OM"/>
       <sheetName val="Datos OM"/>
       <sheetName val="Formulario O2"/>
@@ -1180,16 +1180,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="45">
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-          <cell r="N45">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -1495,7 +1486,7 @@
       <selection activeCell="AF16" sqref="AF16"/>
       <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
       <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
-      <selection pane="bottomRight" activeCell="AD38" sqref="AD38"/>
+      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,26 +1557,26 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
@@ -1595,10 +1586,10 @@
     <row r="6" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="AC6" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
@@ -1608,10 +1599,10 @@
     <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="AC7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
@@ -1621,10 +1612,10 @@
     <row r="8" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="AC8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
@@ -1634,10 +1625,10 @@
     <row r="9" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="AC9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
@@ -1647,10 +1638,10 @@
     <row r="10" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="AC10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
@@ -1660,10 +1651,10 @@
     <row r="11" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="AC11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
@@ -1673,10 +1664,10 @@
     <row r="12" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="AC12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
@@ -1686,10 +1677,10 @@
     <row r="13" spans="1:34" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="AC13" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
@@ -1699,10 +1690,10 @@
     <row r="14" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="AC14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
@@ -1712,10 +1703,10 @@
     <row r="15" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="AC15" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
@@ -1725,10 +1716,10 @@
     <row r="16" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="AC16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
@@ -1738,10 +1729,10 @@
     <row r="17" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="AC17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
@@ -1751,10 +1742,10 @@
     <row r="18" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="AC18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
@@ -1764,10 +1755,10 @@
     <row r="19" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="AC19" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
@@ -1777,10 +1768,10 @@
     <row r="20" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="AC20" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
@@ -1789,13 +1780,13 @@
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
@@ -1805,10 +1796,10 @@
     <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="AC22" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
@@ -1818,10 +1809,10 @@
     <row r="23" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="AC23" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD23" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
@@ -1830,38 +1821,38 @@
     </row>
     <row r="24" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="AC24" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
+      <c r="AC24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
     </row>
     <row r="25" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="AC25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
+      <c r="AC25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="AC26" s="9" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
@@ -1870,11 +1861,11 @@
     <row r="27" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="AC27" s="9" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
@@ -1883,11 +1874,11 @@
     <row r="28" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="AC28" s="9" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
@@ -1896,11 +1887,11 @@
     <row r="29" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="AC29" s="9" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
@@ -1909,11 +1900,11 @@
     <row r="30" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="AC30" s="9" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
@@ -1922,11 +1913,11 @@
     <row r="31" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="AC31" s="9" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AD31" s="10"/>
       <c r="AE31" s="10" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
@@ -1935,11 +1926,11 @@
     <row r="32" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="AC32" s="9" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
@@ -1948,7 +1939,7 @@
     <row r="33" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="AC33" s="9" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
@@ -1959,7 +1950,7 @@
     <row r="34" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="AC34" s="9" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
@@ -1970,7 +1961,7 @@
     <row r="35" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="AC35" s="9" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
@@ -1981,7 +1972,7 @@
     <row r="36" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="AC36" s="11" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
@@ -1991,7 +1982,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -2012,7 +2003,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC39" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
@@ -2022,7 +2013,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC40" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -2032,7 +2023,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC41" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
@@ -2042,7 +2033,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC42" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -2052,55 +2043,55 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC43" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC44" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC45" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AG45" s="10"/>
       <c r="AH45" s="10"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC46" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AG46" s="10"/>
       <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC47" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
@@ -2110,12 +2101,12 @@
     </row>
     <row r="48" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AC48" s="15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
       <c r="AF48" s="12" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AG48" s="12"/>
       <c r="AH48" s="12"/>
@@ -2200,7 +2191,7 @@
     <row r="126" x14ac:dyDescent="0.25"/>
     <row r="127" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UuUI+4Rqv9spg1lq6dE9i7ESngdjzlL5kMaZ9sUU2D6r3M0Mc41KzPQPPeUEQDb4NEPsILieRmAv/4z4H1EW5Q==" saltValue="FpEtM1rBeszkpj6RByymUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g+AL71hc6bRNblxYmJReeGMopg53XuttBZVGCugZ7sq+YQKHs+DW6JXY8N/kQNSpFmwO5F/HGzogoLUVgZJGhg==" saltValue="Ka/59PztVXhiz5Ukdxin7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2626,8 +2617,9 @@
       <c r="AH36" s="12"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>122</v>
+      <c r="A37" s="25" t="str">
+        <f>'Formulas DG'!A37</f>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -2961,7 +2953,7 @@
     <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M5b/hCE++uqWHa84m7TUVuZrnK78mL7j6y+J9iA+sNmByx5CMvATt/lBLjk/n9iw3UquRU59sRVQP3R6UBOASA==" saltValue="PLZ0J4V8Awyp19IjuD2jWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3389,7 +3381,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -4150,7 +4142,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -4776,7 +4768,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -5594,7 +5586,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -6420,7 +6412,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -7235,7 +7227,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -7453,7 +7445,7 @@
       <selection activeCell="AC48" sqref="AC48"/>
       <selection pane="topRight" activeCell="AC48" sqref="AC48"/>
       <selection pane="bottomLeft" activeCell="AC48" sqref="AC48"/>
-      <selection pane="bottomRight" activeCell="AD35" sqref="AD35"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7870,7 +7862,7 @@
     <row r="37" spans="1:34" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V5.0</v>
+        <v>V6.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="17"/>
@@ -7913,7 +7905,7 @@
       <c r="AC41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AD41" s="10"/>
+      <c r="AD41" s="12"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
       <c r="AG41" s="10"/>
@@ -7923,7 +7915,7 @@
       <c r="AC42" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="10"/>
+      <c r="AD42" s="8"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>
@@ -8063,7 +8055,7 @@
     <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="20w4sM4v1EKGCgPyDNjpOdEJYaye8gVxA90JLTwQN07XsZhmEEN8ANMjGGLDY5jDWBR+bXwEdaWQRyDYhGRkcQ==" saltValue="vrd+NLjP/oGUhcC2w7GB0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o+vqr9volSWVv0qbqEXzwSw1T0n2A3Wd+rfU9IP72qKlM/2H50FG7LJmR9njCvXoYuyfWbdU1Tv1bFRk/Wy/FQ==" saltValue="94uoVXyQQmAZ2VsrL7Y5WA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
